--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value532.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value532.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160837933858062</v>
+        <v>1.448858737945557</v>
       </c>
       <c r="B1">
-        <v>1.511722420217214</v>
+        <v>2.38878870010376</v>
       </c>
       <c r="C1">
-        <v>1.507316039707698</v>
+        <v>2.807727098464966</v>
       </c>
       <c r="D1">
-        <v>1.762442530412709</v>
+        <v>3.22675347328186</v>
       </c>
       <c r="E1">
-        <v>2.377706766193646</v>
+        <v>1.858639478683472</v>
       </c>
     </row>
   </sheetData>
